--- a/pareceres_recebidos.xlsx
+++ b/pareceres_recebidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7c02c31a145930/Profissional/UFAM/_Ensino/PPGCiMH/2025_2/Ética/Comitê de Ética/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{0455CDA0-F1D8-4E4A-927D-63976B7C65B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5F89F51-A237-4521-B772-A678F552B9EE}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{0455CDA0-F1D8-4E4A-927D-63976B7C65B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56DA2E4-ECF7-44FE-A615-7F24A07A975D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Ailton Serrão Esquerdo</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>Parecer_Thalita.pdf</t>
+  </si>
+  <si>
+    <t>Parecer_Alessandra.pdf</t>
+  </si>
+  <si>
+    <t>Parecer_Andrea.pdf</t>
+  </si>
+  <si>
+    <t>Parecer_Emynna.pdf</t>
+  </si>
+  <si>
+    <t>Parecer_Jessica.pdf</t>
+  </si>
+  <si>
+    <t>Parecer_Lunna.pdf</t>
+  </si>
+  <si>
+    <t>Parecer_Maycon.pdf</t>
   </si>
 </sst>
 </file>
@@ -270,10 +288,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,7 +580,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +609,9 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -633,7 +649,9 @@
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -655,7 +673,9 @@
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -709,7 +729,9 @@
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -731,7 +753,9 @@
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -761,7 +785,9 @@
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
